--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_General.xlsx
@@ -462,22 +462,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>-1</v>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -503,13 +503,13 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -532,16 +532,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -555,19 +555,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,25 +587,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -619,19 +619,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -651,19 +651,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -724,19 +724,19 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1.159092821723107E-08</v>
+        <v>0.002497270883133229</v>
       </c>
       <c r="D2">
-        <v>6.579923028660062E-08</v>
+        <v>0.003517808575465464</v>
       </c>
       <c r="E2">
-        <v>1.071392463813936E-05</v>
+        <v>0.009285831233703634</v>
       </c>
       <c r="F2">
-        <v>2.227555800282666E-05</v>
+        <v>0.02069770820294337</v>
       </c>
       <c r="G2">
-        <v>2.011435173976395E-08</v>
+        <v>0.003563255051977299</v>
       </c>
       <c r="H2">
-        <v>1.782743952460919E-08</v>
+        <v>0.003082679151582557</v>
       </c>
       <c r="I2">
-        <v>1.508349001255738E-12</v>
+        <v>0.00138293586019711</v>
       </c>
       <c r="J2">
-        <v>0.00256018501466837</v>
+        <v>0.02491511647008204</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.159092821723107E-08</v>
+        <v>0.002497270883133229</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.922530852516147E-05</v>
       </c>
       <c r="E3">
-        <v>8.329115175342849E-12</v>
+        <v>0.000706389124963902</v>
       </c>
       <c r="F3">
-        <v>2.141423216528437E-08</v>
+        <v>0.002133996810657068</v>
       </c>
       <c r="G3">
-        <v>1.517514998106151E-07</v>
+        <v>0.0015263875234659</v>
       </c>
       <c r="H3">
-        <v>3.086872035762411E-07</v>
+        <v>0.002042881261158591</v>
       </c>
       <c r="I3">
-        <v>0.006253948226687012</v>
+        <v>0.03349818600747323</v>
       </c>
       <c r="J3">
-        <v>2.220446049250313E-16</v>
+        <v>0.0005746434786069177</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.579923028660062E-08</v>
+        <v>0.003517808575465464</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.922530852516147E-05</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2.531121312543405E-09</v>
+        <v>0.001661702955437772</v>
       </c>
       <c r="F4">
-        <v>1.331126084913592E-07</v>
+        <v>0.003100119261938206</v>
       </c>
       <c r="G4">
-        <v>5.389287990564817E-05</v>
+        <v>0.007316875113141164</v>
       </c>
       <c r="H4">
-        <v>7.759131413642706E-05</v>
+        <v>0.009083781838047811</v>
       </c>
       <c r="I4">
-        <v>0.04469463096686033</v>
+        <v>0.09810747093879968</v>
       </c>
       <c r="J4">
-        <v>1.088018564132653E-14</v>
+        <v>0.0009178871552482093</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.071392463813936E-05</v>
+        <v>0.009285831233703634</v>
       </c>
       <c r="C5">
-        <v>8.329115175342849E-12</v>
+        <v>0.000706389124963902</v>
       </c>
       <c r="D5">
-        <v>2.531121312543405E-09</v>
+        <v>0.001661702955437772</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>2.760851007233001E-05</v>
+        <v>0.009285844034439217</v>
       </c>
       <c r="G5">
-        <v>0.1121413616128017</v>
+        <v>0.2203322782471007</v>
       </c>
       <c r="H5">
-        <v>0.2167849363755736</v>
+        <v>0.3456620571406912</v>
       </c>
       <c r="I5">
-        <v>0.3868384167927248</v>
+        <v>0.4936356513560316</v>
       </c>
       <c r="J5">
-        <v>1.464288950092651E-06</v>
+        <v>0.003547348020978225</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.227555800282666E-05</v>
+        <v>0.02069770820294337</v>
       </c>
       <c r="C6">
-        <v>2.141423216528437E-08</v>
+        <v>0.002133996810657068</v>
       </c>
       <c r="D6">
-        <v>1.331126084913592E-07</v>
+        <v>0.003100119261938206</v>
       </c>
       <c r="E6">
-        <v>2.760851007233001E-05</v>
+        <v>0.009285844034439217</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.143335696760175E-08</v>
+        <v>0.002929803593646474</v>
       </c>
       <c r="H6">
-        <v>3.8083090014851E-08</v>
+        <v>0.002468041391740616</v>
       </c>
       <c r="I6">
-        <v>1.38622446854697E-12</v>
+        <v>0.001044479719741531</v>
       </c>
       <c r="J6">
-        <v>0.009787501319430181</v>
+        <v>0.03116425617557783</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.011435173976395E-08</v>
+        <v>0.003563255051977299</v>
       </c>
       <c r="C7">
-        <v>1.517514998106151E-07</v>
+        <v>0.0015263875234659</v>
       </c>
       <c r="D7">
-        <v>5.389287990564817E-05</v>
+        <v>0.007316875113141164</v>
       </c>
       <c r="E7">
-        <v>0.1121413616128017</v>
+        <v>0.2203322782471007</v>
       </c>
       <c r="F7">
-        <v>4.143335696760175E-08</v>
+        <v>0.002929803593646474</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3601403172118245</v>
+        <v>0.3581911069807318</v>
       </c>
       <c r="I7">
-        <v>0.9973366545466318</v>
+        <v>0.9976026072268833</v>
       </c>
       <c r="J7">
-        <v>1.196551080440145E-09</v>
+        <v>0.001468590531056524</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.782743952460919E-08</v>
+        <v>0.003082679151582557</v>
       </c>
       <c r="C8">
-        <v>3.086872035762411E-07</v>
+        <v>0.002042881261158591</v>
       </c>
       <c r="D8">
-        <v>7.759131413642706E-05</v>
+        <v>0.009083781838047811</v>
       </c>
       <c r="E8">
-        <v>0.2167849363755736</v>
+        <v>0.3456620571406912</v>
       </c>
       <c r="F8">
-        <v>3.8083090014851E-08</v>
+        <v>0.002468041391740616</v>
       </c>
       <c r="G8">
-        <v>0.3601403172118245</v>
+        <v>0.3581911069807318</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.8501796582126628</v>
+        <v>0.8506648404732422</v>
       </c>
       <c r="J8">
-        <v>2.204609805822599E-08</v>
+        <v>0.001591974741000701</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.508349001255738E-12</v>
+        <v>0.00138293586019711</v>
       </c>
       <c r="C9">
-        <v>0.006253948226687012</v>
+        <v>0.03349818600747323</v>
       </c>
       <c r="D9">
-        <v>0.04469463096686033</v>
+        <v>0.09810747093879968</v>
       </c>
       <c r="E9">
-        <v>0.3868384167927248</v>
+        <v>0.4936356513560316</v>
       </c>
       <c r="F9">
-        <v>1.38622446854697E-12</v>
+        <v>0.001044479719741531</v>
       </c>
       <c r="G9">
-        <v>0.9973366545466318</v>
+        <v>0.9976026072268833</v>
       </c>
       <c r="H9">
-        <v>0.8501796582126628</v>
+        <v>0.8506648404732422</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0002518650654144139</v>
+        <v>0.005028328456109454</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.00256018501466837</v>
+        <v>0.02491511647008204</v>
       </c>
       <c r="C10">
-        <v>2.220446049250313E-16</v>
+        <v>0.0005746434786069177</v>
       </c>
       <c r="D10">
-        <v>1.088018564132653E-14</v>
+        <v>0.0009178871552482093</v>
       </c>
       <c r="E10">
-        <v>1.464288950092651E-06</v>
+        <v>0.003547348020978225</v>
       </c>
       <c r="F10">
-        <v>0.009787501319430181</v>
+        <v>0.03116425617557783</v>
       </c>
       <c r="G10">
-        <v>1.196551080440145E-09</v>
+        <v>0.001468590531056524</v>
       </c>
       <c r="H10">
-        <v>2.204609805822599E-08</v>
+        <v>0.001591974741000701</v>
       </c>
       <c r="I10">
-        <v>0.0002518650654144139</v>
+        <v>0.005028328456109454</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.73906470664978</v>
+        <v>3.412238887782399</v>
       </c>
       <c r="D2">
-        <v>5.430738380829041</v>
+        <v>3.268149501053552</v>
       </c>
       <c r="E2">
-        <v>4.417874604247282</v>
+        <v>2.851260737422985</v>
       </c>
       <c r="F2">
-        <v>4.254796170932628</v>
+        <v>2.492623769941244</v>
       </c>
       <c r="G2">
-        <v>5.642834859828327</v>
+        <v>3.262725900749976</v>
       </c>
       <c r="H2">
-        <v>5.664031709145429</v>
+        <v>3.323827123400642</v>
       </c>
       <c r="I2">
-        <v>7.136922251240922</v>
+        <v>3.65821535884673</v>
       </c>
       <c r="J2">
-        <v>3.021435277535649</v>
+        <v>2.407052874157959</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-5.73906470664978</v>
+        <v>-3.412238887782399</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-9.805502476612839</v>
+        <v>-5.418896875268254</v>
       </c>
       <c r="E3">
-        <v>-6.889777741588588</v>
+        <v>-3.935136791290341</v>
       </c>
       <c r="F3">
-        <v>-5.631808579445291</v>
+        <v>-3.477949337777977</v>
       </c>
       <c r="G3">
-        <v>-5.276591772524899</v>
+        <v>-3.617322761867777</v>
       </c>
       <c r="H3">
-        <v>-5.142344519221123</v>
+        <v>-3.496149596096676</v>
       </c>
       <c r="I3">
-        <v>-2.738192417153448</v>
+        <v>-2.267937905842347</v>
       </c>
       <c r="J3">
-        <v>-8.295970650961138</v>
+        <v>-4.019856187300427</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-5.430738380829041</v>
+        <v>-3.268149501053552</v>
       </c>
       <c r="C4">
-        <v>9.805502476612839</v>
+        <v>5.418896875268254</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-5.997447019810587</v>
+        <v>-3.582075954620635</v>
       </c>
       <c r="F4">
-        <v>-5.30103267618077</v>
+        <v>-3.321452297101157</v>
       </c>
       <c r="G4">
-        <v>-4.050242835376131</v>
+        <v>-2.955060485683298</v>
       </c>
       <c r="H4">
-        <v>-3.963157482381483</v>
+        <v>-2.860889571405292</v>
       </c>
       <c r="I4">
-        <v>-2.009272963653876</v>
+        <v>-1.727418275554835</v>
       </c>
       <c r="J4">
-        <v>-7.81118401169658</v>
+        <v>-3.827429307356105</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-4.417874604247282</v>
+        <v>-2.851260737422985</v>
       </c>
       <c r="C5">
-        <v>6.889777741588588</v>
+        <v>3.935136791290341</v>
       </c>
       <c r="D5">
-        <v>5.997447019810587</v>
+        <v>3.582075954620635</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-4.205913685089299</v>
+        <v>-2.851260133744803</v>
       </c>
       <c r="G5">
-        <v>1.589614619199941</v>
+        <v>1.261525223544554</v>
       </c>
       <c r="H5">
-        <v>1.235664617542487</v>
+        <v>0.9637172936089529</v>
       </c>
       <c r="I5">
-        <v>0.8656281271555816</v>
+        <v>0.6961320670049859</v>
       </c>
       <c r="J5">
-        <v>-4.836366410090921</v>
+        <v>-3.264616567979964</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-4.254796170932628</v>
+        <v>-2.492623769941244</v>
       </c>
       <c r="C6">
-        <v>5.631808579445291</v>
+        <v>3.477949337777977</v>
       </c>
       <c r="D6">
-        <v>5.30103267618077</v>
+        <v>3.321452297101157</v>
       </c>
       <c r="E6">
-        <v>4.205913685089299</v>
+        <v>2.851260133744803</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5.51438541738862</v>
+        <v>3.345222729600425</v>
       </c>
       <c r="H6">
-        <v>5.52951091959906</v>
+        <v>3.417168282322994</v>
       </c>
       <c r="I6">
-        <v>7.148936907194763</v>
+        <v>3.774188311104176</v>
       </c>
       <c r="J6">
-        <v>2.586695722630112</v>
+        <v>2.30218648941491</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-5.642834859828327</v>
+        <v>-3.262725900749976</v>
       </c>
       <c r="C7">
-        <v>5.276591772524899</v>
+        <v>3.617322761867777</v>
       </c>
       <c r="D7">
-        <v>4.050242835376131</v>
+        <v>2.955060485683298</v>
       </c>
       <c r="E7">
-        <v>-1.589614619199941</v>
+        <v>-1.261525223544554</v>
       </c>
       <c r="F7">
-        <v>-5.51438541738862</v>
+        <v>-3.345222729600425</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.9153899527757837</v>
+        <v>-0.9384732931974057</v>
       </c>
       <c r="I7">
-        <v>0.003338594684094827</v>
+        <v>0.003039018182921341</v>
       </c>
       <c r="J7">
-        <v>-6.121050643594625</v>
+        <v>-3.633324043832347</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-5.664031709145429</v>
+        <v>-3.323827123400642</v>
       </c>
       <c r="C8">
-        <v>5.142344519221123</v>
+        <v>3.496149596096676</v>
       </c>
       <c r="D8">
-        <v>3.963157482381483</v>
+        <v>2.860889571405292</v>
       </c>
       <c r="E8">
-        <v>-1.235664617542487</v>
+        <v>-0.9637172936089529</v>
       </c>
       <c r="F8">
-        <v>-5.52951091959906</v>
+        <v>-3.417168282322994</v>
       </c>
       <c r="G8">
-        <v>0.9153899527757837</v>
+        <v>0.9384732931974057</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.188923190482005</v>
+        <v>0.1904992835163427</v>
       </c>
       <c r="J8">
-        <v>-5.626681677427531</v>
+        <v>-3.599871029005107</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-7.136922251240922</v>
+        <v>-3.65821535884673</v>
       </c>
       <c r="C9">
-        <v>2.738192417153448</v>
+        <v>2.267937905842347</v>
       </c>
       <c r="D9">
-        <v>2.009272963653876</v>
+        <v>1.727418275554835</v>
       </c>
       <c r="E9">
-        <v>-0.8656281271555816</v>
+        <v>-0.6961320670049859</v>
       </c>
       <c r="F9">
-        <v>-7.148936907194763</v>
+        <v>-3.774188311104176</v>
       </c>
       <c r="G9">
-        <v>-0.003338594684094827</v>
+        <v>-0.003039018182921341</v>
       </c>
       <c r="H9">
-        <v>-0.188923190482005</v>
+        <v>-0.1904992835163427</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-3.66953267700805</v>
+        <v>-3.11641089207814</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-3.021435277535649</v>
+        <v>-2.407052874157959</v>
       </c>
       <c r="C10">
-        <v>8.295970650961138</v>
+        <v>4.019856187300427</v>
       </c>
       <c r="D10">
-        <v>7.81118401169658</v>
+        <v>3.827429307356105</v>
       </c>
       <c r="E10">
-        <v>4.836366410090921</v>
+        <v>3.264616567979964</v>
       </c>
       <c r="F10">
-        <v>-2.586695722630112</v>
+        <v>-2.30218648941491</v>
       </c>
       <c r="G10">
-        <v>6.121050643594625</v>
+        <v>3.633324043832347</v>
       </c>
       <c r="H10">
-        <v>5.626681677427531</v>
+        <v>3.599871029005107</v>
       </c>
       <c r="I10">
-        <v>3.66953267700805</v>
+        <v>3.11641089207814</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>37.5</v>
       </c>
       <c r="F2">
         <v>0.5774576320792454</v>
@@ -1457,142 +1457,142 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>0.7877186732480409</v>
+        <v>1.297661622856752</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="F4">
-        <v>1.297661622856752</v>
+        <v>0.7877186732480409</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.489903633896171</v>
+        <v>3.163775868438677</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.298246623877678</v>
+        <v>1.489903633896171</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.329647778123854</v>
+        <v>2.991284383072845</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>2.991284383072845</v>
+        <v>1.298246623877678</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.163775868438677</v>
+        <v>1.329647778123854</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>6</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_General.xlsx
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.002497270883133229</v>
+        <v>0.002734659909067849</v>
       </c>
       <c r="D2">
-        <v>0.003517808575465464</v>
+        <v>0.003987793969920661</v>
       </c>
       <c r="E2">
-        <v>0.009285831233703634</v>
+        <v>0.004083939036564788</v>
       </c>
       <c r="F2">
-        <v>0.02069770820294337</v>
+        <v>0.004581692820569305</v>
       </c>
       <c r="G2">
-        <v>0.003563255051977299</v>
+        <v>0.003189592352179194</v>
       </c>
       <c r="H2">
-        <v>0.003082679151582557</v>
+        <v>0.003333657458760575</v>
       </c>
       <c r="I2">
-        <v>0.00138293586019711</v>
+        <v>0.00136442767121836</v>
       </c>
       <c r="J2">
-        <v>0.02491511647008204</v>
+        <v>0.008397237169654792</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002497270883133229</v>
+        <v>0.002734659909067849</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.922530852516147E-05</v>
+        <v>5.445412276650075E-08</v>
       </c>
       <c r="E3">
-        <v>0.000706389124963902</v>
+        <v>2.342301441693451E-08</v>
       </c>
       <c r="F3">
-        <v>0.002133996810657068</v>
+        <v>0.002637830702439503</v>
       </c>
       <c r="G3">
-        <v>0.0015263875234659</v>
+        <v>0.001928437061065491</v>
       </c>
       <c r="H3">
-        <v>0.002042881261158591</v>
+        <v>0.001622102364965627</v>
       </c>
       <c r="I3">
-        <v>0.03349818600747323</v>
+        <v>0.01461190315386918</v>
       </c>
       <c r="J3">
-        <v>0.0005746434786069177</v>
+        <v>0.0004238092696220441</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003517808575465464</v>
+        <v>0.003987793969920661</v>
       </c>
       <c r="C4">
-        <v>1.922530852516147E-05</v>
+        <v>5.445412276650075E-08</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.001661702955437772</v>
+        <v>9.605813007240727E-07</v>
       </c>
       <c r="F4">
-        <v>0.003100119261938206</v>
+        <v>0.004026674376421679</v>
       </c>
       <c r="G4">
-        <v>0.007316875113141164</v>
+        <v>0.014576909765039</v>
       </c>
       <c r="H4">
-        <v>0.009083781838047811</v>
+        <v>0.01135554414426299</v>
       </c>
       <c r="I4">
-        <v>0.09810747093879968</v>
+        <v>0.05186332568387031</v>
       </c>
       <c r="J4">
-        <v>0.0009178871552482093</v>
+        <v>0.001343173187194235</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.009285831233703634</v>
+        <v>0.004083939036564788</v>
       </c>
       <c r="C5">
-        <v>0.000706389124963902</v>
+        <v>2.342301441693451E-08</v>
       </c>
       <c r="D5">
-        <v>0.001661702955437772</v>
+        <v>9.605813007240727E-07</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.009285844034439217</v>
+        <v>0.004135274041789705</v>
       </c>
       <c r="G5">
-        <v>0.2203322782471007</v>
+        <v>0.01635676836179978</v>
       </c>
       <c r="H5">
-        <v>0.3456620571406912</v>
+        <v>0.01274674627732364</v>
       </c>
       <c r="I5">
-        <v>0.4936356513560316</v>
+        <v>0.05500355895914111</v>
       </c>
       <c r="J5">
-        <v>0.003547348020978225</v>
+        <v>0.001462179564748478</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02069770820294337</v>
+        <v>0.004581692820569305</v>
       </c>
       <c r="C6">
-        <v>0.002133996810657068</v>
+        <v>0.002637830702439503</v>
       </c>
       <c r="D6">
-        <v>0.003100119261938206</v>
+        <v>0.004026674376421679</v>
       </c>
       <c r="E6">
-        <v>0.009285844034439217</v>
+        <v>0.004135274041789705</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.002929803593646474</v>
+        <v>0.003135081082850322</v>
       </c>
       <c r="H6">
-        <v>0.002468041391740616</v>
+        <v>0.003298307414022261</v>
       </c>
       <c r="I6">
-        <v>0.001044479719741531</v>
+        <v>0.001123605292599583</v>
       </c>
       <c r="J6">
-        <v>0.03116425617557783</v>
+        <v>0.01008034695388949</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.003563255051977299</v>
+        <v>0.003189592352179194</v>
       </c>
       <c r="C7">
-        <v>0.0015263875234659</v>
+        <v>0.001928437061065491</v>
       </c>
       <c r="D7">
-        <v>0.007316875113141164</v>
+        <v>0.014576909765039</v>
       </c>
       <c r="E7">
-        <v>0.2203322782471007</v>
+        <v>0.01635676836179978</v>
       </c>
       <c r="F7">
-        <v>0.002929803593646474</v>
+        <v>0.003135081082850322</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3581911069807318</v>
+        <v>0.3372636106875173</v>
       </c>
       <c r="I7">
-        <v>0.9976026072268833</v>
+        <v>0.327876057002459</v>
       </c>
       <c r="J7">
-        <v>0.001468590531056524</v>
+        <v>0.001084030173052364</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.003082679151582557</v>
+        <v>0.003333657458760575</v>
       </c>
       <c r="C8">
-        <v>0.002042881261158591</v>
+        <v>0.001622102364965627</v>
       </c>
       <c r="D8">
-        <v>0.009083781838047811</v>
+        <v>0.01135554414426299</v>
       </c>
       <c r="E8">
-        <v>0.3456620571406912</v>
+        <v>0.01274674627732364</v>
       </c>
       <c r="F8">
-        <v>0.002468041391740616</v>
+        <v>0.003298307414022261</v>
       </c>
       <c r="G8">
-        <v>0.3581911069807318</v>
+        <v>0.3372636106875173</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.8506648404732422</v>
+        <v>0.4455221273315819</v>
       </c>
       <c r="J8">
-        <v>0.001591974741000701</v>
+        <v>0.001023447348025286</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.00138293586019711</v>
+        <v>0.00136442767121836</v>
       </c>
       <c r="C9">
-        <v>0.03349818600747323</v>
+        <v>0.01461190315386918</v>
       </c>
       <c r="D9">
-        <v>0.09810747093879968</v>
+        <v>0.05186332568387031</v>
       </c>
       <c r="E9">
-        <v>0.4936356513560316</v>
+        <v>0.05500355895914111</v>
       </c>
       <c r="F9">
-        <v>0.001044479719741531</v>
+        <v>0.001123605292599583</v>
       </c>
       <c r="G9">
-        <v>0.9976026072268833</v>
+        <v>0.327876057002459</v>
       </c>
       <c r="H9">
-        <v>0.8506648404732422</v>
+        <v>0.4455221273315819</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.005028328456109454</v>
+        <v>0.01344620704684352</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02491511647008204</v>
+        <v>0.008397237169654792</v>
       </c>
       <c r="C10">
-        <v>0.0005746434786069177</v>
+        <v>0.0004238092696220441</v>
       </c>
       <c r="D10">
-        <v>0.0009178871552482093</v>
+        <v>0.001343173187194235</v>
       </c>
       <c r="E10">
-        <v>0.003547348020978225</v>
+        <v>0.001462179564748478</v>
       </c>
       <c r="F10">
-        <v>0.03116425617557783</v>
+        <v>0.01008034695388949</v>
       </c>
       <c r="G10">
-        <v>0.001468590531056524</v>
+        <v>0.001084030173052364</v>
       </c>
       <c r="H10">
-        <v>0.001591974741000701</v>
+        <v>0.001023447348025286</v>
       </c>
       <c r="I10">
-        <v>0.005028328456109454</v>
+        <v>0.01344620704684352</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.412238887782399</v>
+        <v>3.231500923989192</v>
       </c>
       <c r="D2">
-        <v>3.268149501053552</v>
+        <v>3.088834675212722</v>
       </c>
       <c r="E2">
-        <v>2.851260737422985</v>
+        <v>3.079733660691588</v>
       </c>
       <c r="F2">
-        <v>2.492623769941244</v>
+        <v>3.035637635437661</v>
       </c>
       <c r="G2">
-        <v>3.262725900749976</v>
+        <v>3.173619937244422</v>
       </c>
       <c r="H2">
-        <v>3.323827123400642</v>
+        <v>3.15692460952076</v>
       </c>
       <c r="I2">
-        <v>3.65821535884673</v>
+        <v>3.488206566627232</v>
       </c>
       <c r="J2">
-        <v>2.407052874157959</v>
+        <v>2.798478975572296</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-3.412238887782399</v>
+        <v>-3.231500923989192</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-5.418896875268254</v>
+        <v>-6.932441285772769</v>
       </c>
       <c r="E3">
-        <v>-3.935136791290341</v>
+        <v>-7.221981404764576</v>
       </c>
       <c r="F3">
-        <v>-3.477949337777977</v>
+        <v>-3.245000261873827</v>
       </c>
       <c r="G3">
-        <v>-3.617322761867777</v>
+        <v>-3.36139282859078</v>
       </c>
       <c r="H3">
-        <v>-3.496149596096676</v>
+        <v>-3.425014744761908</v>
       </c>
       <c r="I3">
-        <v>-2.267937905842347</v>
+        <v>-2.573180342828718</v>
       </c>
       <c r="J3">
-        <v>-4.019856187300427</v>
+        <v>-3.905822235922475</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-3.268149501053552</v>
+        <v>-3.088834675212722</v>
       </c>
       <c r="C4">
-        <v>5.418896875268254</v>
+        <v>6.932441285772769</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-3.582075954620635</v>
+        <v>-5.963460976456814</v>
       </c>
       <c r="F4">
-        <v>-3.321452297101157</v>
+        <v>-3.085129504109941</v>
       </c>
       <c r="G4">
-        <v>-2.955060485683298</v>
+        <v>-2.574175795828169</v>
       </c>
       <c r="H4">
-        <v>-2.860889571405292</v>
+        <v>-2.676853237594002</v>
       </c>
       <c r="I4">
-        <v>-1.727418275554835</v>
+        <v>-2.015031469343736</v>
       </c>
       <c r="J4">
-        <v>-3.827429307356105</v>
+        <v>-3.493921365277648</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-2.851260737422985</v>
+        <v>-3.079733660691588</v>
       </c>
       <c r="C5">
-        <v>3.935136791290341</v>
+        <v>7.221981404764576</v>
       </c>
       <c r="D5">
-        <v>3.582075954620635</v>
+        <v>5.963460976456814</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.851260133744803</v>
+        <v>-3.074957143920116</v>
       </c>
       <c r="G5">
-        <v>1.261525223544554</v>
+        <v>-2.526129797294858</v>
       </c>
       <c r="H5">
-        <v>0.9637172936089529</v>
+        <v>-2.629579052036453</v>
       </c>
       <c r="I5">
-        <v>0.6961320670049859</v>
+        <v>-1.987208377691263</v>
       </c>
       <c r="J5">
-        <v>-3.264616567979964</v>
+        <v>-3.462980590312165</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-2.492623769941244</v>
+        <v>-3.035637635437661</v>
       </c>
       <c r="C6">
-        <v>3.477949337777977</v>
+        <v>3.245000261873827</v>
       </c>
       <c r="D6">
-        <v>3.321452297101157</v>
+        <v>3.085129504109941</v>
       </c>
       <c r="E6">
-        <v>2.851260133744803</v>
+        <v>3.074957143920116</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.345222729600425</v>
+        <v>3.180124817561133</v>
       </c>
       <c r="H6">
-        <v>3.417168282322994</v>
+        <v>3.160956766552608</v>
       </c>
       <c r="I6">
-        <v>3.774188311104176</v>
+        <v>3.558663014782895</v>
       </c>
       <c r="J6">
-        <v>2.30218648941491</v>
+        <v>2.725163433185029</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-3.262725900749976</v>
+        <v>-3.173619937244422</v>
       </c>
       <c r="C7">
-        <v>3.617322761867777</v>
+        <v>3.36139282859078</v>
       </c>
       <c r="D7">
-        <v>2.955060485683298</v>
+        <v>2.574175795828169</v>
       </c>
       <c r="E7">
-        <v>-1.261525223544554</v>
+        <v>2.526129797294858</v>
       </c>
       <c r="F7">
-        <v>-3.345222729600425</v>
+        <v>-3.180124817561133</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.9384732931974057</v>
+        <v>-0.9733299923912557</v>
       </c>
       <c r="I7">
-        <v>0.003039018182921341</v>
+        <v>-0.9926850408536049</v>
       </c>
       <c r="J7">
-        <v>-3.633324043832347</v>
+        <v>-3.571619397393549</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-3.323827123400642</v>
+        <v>-3.15692460952076</v>
       </c>
       <c r="C8">
-        <v>3.496149596096676</v>
+        <v>3.425014744761908</v>
       </c>
       <c r="D8">
-        <v>2.860889571405292</v>
+        <v>2.676853237594002</v>
       </c>
       <c r="E8">
-        <v>-0.9637172936089529</v>
+        <v>2.629579052036453</v>
       </c>
       <c r="F8">
-        <v>-3.417168282322994</v>
+        <v>-3.160956766552608</v>
       </c>
       <c r="G8">
-        <v>0.9384732931974057</v>
+        <v>0.9733299923912557</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1904992835163427</v>
+        <v>-0.7718723421198574</v>
       </c>
       <c r="J8">
-        <v>-3.599871029005107</v>
+        <v>-3.592366141912514</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.65821535884673</v>
+        <v>-3.488206566627232</v>
       </c>
       <c r="C9">
-        <v>2.267937905842347</v>
+        <v>2.573180342828718</v>
       </c>
       <c r="D9">
-        <v>1.727418275554835</v>
+        <v>2.015031469343736</v>
       </c>
       <c r="E9">
-        <v>-0.6961320670049859</v>
+        <v>1.987208377691263</v>
       </c>
       <c r="F9">
-        <v>-3.774188311104176</v>
+        <v>-3.558663014782895</v>
       </c>
       <c r="G9">
-        <v>-0.003039018182921341</v>
+        <v>0.9926850408536049</v>
       </c>
       <c r="H9">
-        <v>-0.1904992835163427</v>
+        <v>0.7718723421198574</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-3.11641089207814</v>
+        <v>-2.607587525682687</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-2.407052874157959</v>
+        <v>-2.798478975572296</v>
       </c>
       <c r="C10">
-        <v>4.019856187300427</v>
+        <v>3.905822235922475</v>
       </c>
       <c r="D10">
-        <v>3.827429307356105</v>
+        <v>3.493921365277648</v>
       </c>
       <c r="E10">
-        <v>3.264616567979964</v>
+        <v>3.462980590312165</v>
       </c>
       <c r="F10">
-        <v>-2.30218648941491</v>
+        <v>-2.725163433185029</v>
       </c>
       <c r="G10">
-        <v>3.633324043832347</v>
+        <v>3.571619397393549</v>
       </c>
       <c r="H10">
-        <v>3.599871029005107</v>
+        <v>3.592366141912514</v>
       </c>
       <c r="I10">
-        <v>3.11641089207814</v>
+        <v>2.607587525682687</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>37.5</v>
       </c>
       <c r="F2">
-        <v>0.5774576320792454</v>
+        <v>0.5671364262344255</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1472,7 +1472,7 @@
         <v>25</v>
       </c>
       <c r="F3">
-        <v>1.297661622856752</v>
+        <v>1.488556683684069</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1480,64 +1480,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>0.7877186732480409</v>
+        <v>0.820242277353684</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F5">
-        <v>3.163775868438677</v>
+        <v>1.380402344219233</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F6">
-        <v>1.489903633896171</v>
+        <v>1.343249355914538</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1552,47 +1552,47 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.991284383072845</v>
+        <v>4.182438981654339</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.298246623877678</v>
+        <v>0.8283628986472749</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.329647778123854</v>
+        <v>3.824239515718811</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.187906433249951</v>
+        <v>1.953610766464056</v>
       </c>
     </row>
   </sheetData>
